--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1350.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1350.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.146477344121203</v>
+        <v>1.209789633750916</v>
       </c>
       <c r="B1">
-        <v>2.608746609621881</v>
+        <v>2.546462059020996</v>
       </c>
       <c r="C1">
-        <v>4.210739264313214</v>
+        <v>9.324790954589844</v>
       </c>
       <c r="D1">
-        <v>2.570735808803487</v>
+        <v>2.063595533370972</v>
       </c>
       <c r="E1">
-        <v>1.170765643266827</v>
+        <v>1.195932626724243</v>
       </c>
     </row>
   </sheetData>
